--- a/src/assets/update-price.xlsx
+++ b/src/assets/update-price.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\G99_PROJECTS_FRONTNED\admin.s198\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179696A-1709-4DAA-BA0D-39196CD0EE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EF300-1EA8-4A6B-804D-F0D4A6F5A54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB4E6041-1119-4A92-B5D2-3258BC9E1B0E}"/>
   </bookViews>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
     <t>0997000002</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,15 +410,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>80000</v>
